--- a/amplifier/sleeve/参数记录.xlsx
+++ b/amplifier/sleeve/参数记录.xlsx
@@ -424,9 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
